--- a/requirements.xlsx
+++ b/requirements.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matthew.christian\msm\analyticalmeanderings.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{228C1389-94BE-4825-9CF5-C23F1A156EA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{440A147D-8521-44C4-BE65-993384E82FDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28830" yWindow="0" windowWidth="19185" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Technical Requirements" sheetId="3" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="59">
   <si>
     <t>ID</t>
   </si>
@@ -57,9 +56,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t>On the home tab, dynamically pulled API calls with news alerts related to the pharma industry</t>
-  </si>
-  <si>
     <t>On the home tab, a tutorial video.</t>
   </si>
   <si>
@@ -72,16 +68,10 @@
     <t>TR1</t>
   </si>
   <si>
-    <t>Six interactive tabs across the top of the screen, enabled with MERN (MongoDB, NodeJS, ReactJS, ExpressJS). MongoDB is lowest priority as it can be replaced with AWS (assumption needs validation).</t>
-  </si>
-  <si>
     <t>High</t>
   </si>
   <si>
     <t>TR2</t>
-  </si>
-  <si>
-    <t>Add seventh tab with Scenerio Analysis</t>
   </si>
   <si>
     <t>Medium</t>
@@ -116,42 +106,27 @@
 A tutorial section with a video link.</t>
   </si>
   <si>
-    <t>For the Top 10 table, use downstream_risk.csv</t>
-  </si>
-  <si>
     <t>TR6</t>
   </si>
   <si>
-    <t>On the Upstream Info tab, a table that lists all Upstream manufacterers, upstream products, City, Country, Application Data, Activeness Flag, and Forecasted Volume. Ability to filter and sort each column.</t>
-  </si>
-  <si>
     <t>Data stored in upstream.csv</t>
   </si>
   <si>
     <t>TR7</t>
   </si>
   <si>
-    <t>On the Downstream Info tab, a table that lists all manufacterers, products, City, Country, Application Data, Activeness Flag, Forecasted Volume, and product codes. Ability to filter and sort each column.</t>
-  </si>
-  <si>
     <t>Data stored in downstream.csv</t>
   </si>
   <si>
     <t>TR8</t>
   </si>
   <si>
-    <t>On the Downstream Risk tab, a table that lists products, total risk, and all underlying risk factors.</t>
-  </si>
-  <si>
     <t>Data stored in downstream_risk.csv</t>
   </si>
   <si>
     <t>TR9</t>
   </si>
   <si>
-    <t>On the Downstream Risk tab, add a waterfall chart for "active" selected products.</t>
-  </si>
-  <si>
     <t>TR10</t>
   </si>
   <si>
@@ -167,12 +142,6 @@
     <t>TR11</t>
   </si>
   <si>
-    <t>On the Maps tab, build a map.</t>
-  </si>
-  <si>
-    <t>Matt to scope data</t>
-  </si>
-  <si>
     <t>TR12</t>
   </si>
   <si>
@@ -210,6 +179,41 @@
   </si>
   <si>
     <t>TR24</t>
+  </si>
+  <si>
+    <t>Seven interactive tabs across the top of the screen, enabled with MERN (MongoDB, NodeJS, ReactJS, ExpressJS). MongoDB is lowest priority as it can be replaced with AWS (assumption needs validation).</t>
+  </si>
+  <si>
+    <t>V1 does not include API calls</t>
+  </si>
+  <si>
+    <t>For the Top 10 table, use downstream_risk.csv
+Alerts are static for V1.
+Video links to analyticalmeanderings.com for V1.</t>
+  </si>
+  <si>
+    <t>On the Upstream Info tab, a table that lists all Upstream manufacterers, upstream products, City, Country, Application Data, Activeness Flag, and Forecasted Volume. Ability to filter and sort each column. Ability to export to Excel, csv.</t>
+  </si>
+  <si>
+    <t>On the Downstream Info tab, a table that lists all manufacterers, products, City, Country, Application Data, Activeness Flag, Forecasted Volume, and product codes. Ability to filter and sort each column. Ability to export to Excel, csv.</t>
+  </si>
+  <si>
+    <t>On the Downstream Risk tab, a table that lists products, total risk, and all underlying risk factors. Ability to filter and sort each column. Ability to export to Excel, csv.</t>
+  </si>
+  <si>
+    <t>On the Downstream Risk tab, add a waterfall chart for "active" selected products in the table.</t>
+  </si>
+  <si>
+    <t>On the Maps tab, build a map based on lat/long coordinates. Color/shape coding for upstream vs downstream, and active vs unconfirmed. Ability to zoom. Filters based on country, city, manufacturing type (upstream vs downstream), and Activity (Active vs Unconfirmed). Clicking on a site shows Manufacter Name, City, Country, Products, Volume, Activity Status. Ability to switch from map to table view.</t>
+  </si>
+  <si>
+    <t>Data stored in map.csv</t>
+  </si>
+  <si>
+    <t>On the Scenerio analysis table</t>
+  </si>
+  <si>
+    <t>On the alerts tab, dynamically pulled API calls with news alerts related to the pharma industry</t>
   </si>
 </sst>
 </file>
@@ -629,7 +633,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -654,13 +658,13 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4"/>
     </row>
-    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>0</v>
       </c>
@@ -677,188 +681,186 @@
         <v>2</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="3" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="3"/>
+        <v>11</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>49</v>
+      </c>
       <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F7" s="4"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D8" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>17</v>
-      </c>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="F9" s="4"/>
     </row>
     <row r="10" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="3" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F10" s="4"/>
     </row>
     <row r="11" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="3" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F11" s="4"/>
     </row>
     <row r="12" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="3" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F12" s="4"/>
     </row>
     <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="3" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="F13" s="4"/>
     </row>
     <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="3" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F14" s="4"/>
-    </row>
-    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="3" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>41</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="F15" s="4"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>44</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="D16" s="13"/>
+      <c r="E16" s="3"/>
       <c r="F16" s="4"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="3"/>
@@ -868,7 +870,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="3"/>
@@ -878,7 +880,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="3"/>
@@ -886,51 +888,51 @@
       <c r="E19" s="3"/>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="B20" s="4"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="3"/>
+      <c r="C20" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B21" s="4"/>
       <c r="C21" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F21" s="4"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="B22" s="4"/>
-      <c r="C22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="3"/>
       <c r="F22" s="4"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="B23" s="4"/>
       <c r="C23" s="3"/>
@@ -940,7 +942,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="B24" s="4"/>
       <c r="C24" s="3"/>
@@ -950,7 +952,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="B25" s="4"/>
       <c r="C25" s="3"/>
@@ -960,7 +962,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="B26" s="4"/>
       <c r="C26" s="3"/>
@@ -970,7 +972,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="B27" s="4"/>
       <c r="C27" s="3"/>
@@ -980,7 +982,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="B28" s="4"/>
       <c r="C28" s="3"/>
@@ -990,7 +992,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="B29" s="4"/>
       <c r="C29" s="3"/>
@@ -3951,6 +3953,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <LikesCount xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
@@ -3972,15 +3983,6 @@
     </RatedBy>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4204,6 +4206,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D85E4EDA-CC48-4050-8886-1893D258B0E4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F2ED164F-5622-458E-B1AF-EBAE35FF1310}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
@@ -4217,14 +4227,6 @@
     <ds:schemaRef ds:uri="ada4e998-af1b-4f2e-bfaf-2cbb293c01e4"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D85E4EDA-CC48-4050-8886-1893D258B0E4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/requirements.xlsx
+++ b/requirements.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matthew.christian\msm\analyticalmeanderings.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{440A147D-8521-44C4-BE65-993384E82FDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D403465-87A1-426F-8A08-C1BD547AD5E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9570" yWindow="1800" windowWidth="19185" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Technical Requirements" sheetId="3" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="60">
   <si>
     <t>ID</t>
   </si>
@@ -214,6 +214,9 @@
   </si>
   <si>
     <t>On the alerts tab, dynamically pulled API calls with news alerts related to the pharma industry</t>
+  </si>
+  <si>
+    <t>Only working High priority items for now</t>
   </si>
 </sst>
 </file>
@@ -350,11 +353,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8CA59DA4-B8D5-4547-ACD6-8BD021AD051E}" name="Table13" displayName="Table13" ref="A5:F29" totalsRowShown="0">
-  <autoFilter ref="A5:F29" xr:uid="{8CA59DA4-B8D5-4547-ACD6-8BD021AD051E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8CA59DA4-B8D5-4547-ACD6-8BD021AD051E}" name="Table13" displayName="Table13" ref="A6:F30" totalsRowShown="0">
+  <autoFilter ref="A6:F30" xr:uid="{8CA59DA4-B8D5-4547-ACD6-8BD021AD051E}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{E6CAB10F-387E-491E-ABB9-498799643CFA}" name="ID" dataDxfId="5">
-      <calculatedColumnFormula>A5+1</calculatedColumnFormula>
+      <calculatedColumnFormula>A6+1</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" xr3:uid="{9A99AA3D-B3AE-4A34-9827-B5F07B36F992}" name="JiraStory" dataDxfId="4"/>
     <tableColumn id="3" xr3:uid="{65B8B725-0BA0-4040-AD7E-1BE06CEDBE83}" name="Description" dataDxfId="3"/>
@@ -629,11 +632,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{801E37F9-6044-4D9F-88B6-D3BE230A5B2B}">
-  <dimension ref="A1:F519"/>
+  <dimension ref="A1:F520"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <pane ySplit="6" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -662,147 +665,136 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4"/>
+      <c r="A4" s="7" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="A5"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B6" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C6" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D6" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E6" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F6" s="10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+    <row r="7" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="F6" s="4"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="3" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>14</v>
+        <v>11</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>49</v>
       </c>
       <c r="F7" s="4"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="3" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="D10" s="13" t="s">
         <v>11</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="F10" s="4"/>
     </row>
     <row r="11" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D11" s="13" t="s">
         <v>11</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F11" s="4"/>
     </row>
     <row r="12" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D12" s="13" t="s">
         <v>11</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D13" s="13" t="s">
         <v>11</v>
@@ -814,63 +806,69 @@
     </row>
     <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="3" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="F14" s="4"/>
+    </row>
+    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="3" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F15" s="4"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D16" s="13"/>
-      <c r="E16" s="3"/>
+        <v>55</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>56</v>
+      </c>
       <c r="F16" s="4"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B17" s="4"/>
-      <c r="C17" s="3"/>
+      <c r="C17" s="3" t="s">
+        <v>57</v>
+      </c>
       <c r="D17" s="13"/>
       <c r="E17" s="3"/>
       <c r="F17" s="4"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="3"/>
@@ -880,7 +878,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="3"/>
@@ -888,32 +886,26 @@
       <c r="E19" s="3"/>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="4"/>
+    </row>
+    <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F20" s="4"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="B21" s="4"/>
       <c r="C21" s="3" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>14</v>
@@ -922,17 +914,23 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B22" s="4"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="3"/>
+      <c r="C22" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="F22" s="4"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B23" s="4"/>
       <c r="C23" s="3"/>
@@ -942,7 +940,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B24" s="4"/>
       <c r="C24" s="3"/>
@@ -952,7 +950,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B25" s="4"/>
       <c r="C25" s="3"/>
@@ -962,7 +960,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B26" s="4"/>
       <c r="C26" s="3"/>
@@ -972,7 +970,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B27" s="4"/>
       <c r="C27" s="3"/>
@@ -982,7 +980,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B28" s="4"/>
       <c r="C28" s="3"/>
@@ -992,7 +990,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B29" s="4"/>
       <c r="C29" s="3"/>
@@ -1001,10 +999,14 @@
       <c r="F29" s="4"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
+      <c r="A30" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="B30" s="4"/>
       <c r="C30" s="3"/>
-      <c r="D30" s="4"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="4"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
@@ -3939,6 +3941,12 @@
       <c r="B519" s="4"/>
       <c r="C519" s="3"/>
       <c r="D519" s="4"/>
+    </row>
+    <row r="520" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A520" s="1"/>
+      <c r="B520" s="4"/>
+      <c r="C520" s="3"/>
+      <c r="D520" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3953,39 +3961,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <LikesCount xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Ratings xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <LikedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </LikedBy>
-    <IconOverlay xmlns="3a62d3ce-78bb-4adc-a222-74f2b6beab74" xsi:nil="true"/>
-    <RatedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </RatedBy>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C5FE1A8C0484374FA9D05E0325AA5CDC" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5fd9fb094fb26610ef33c42972fdb6db">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="3a62d3ce-78bb-4adc-a222-74f2b6beab74" xmlns:ns3="ada4e998-af1b-4f2e-bfaf-2cbb293c01e4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f8a62238d97390e09e10128978886e86" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -4205,10 +4180,55 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <LikesCount xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Ratings xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <LikedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </LikedBy>
+    <IconOverlay xmlns="3a62d3ce-78bb-4adc-a222-74f2b6beab74" xsi:nil="true"/>
+    <RatedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </RatedBy>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D85E4EDA-CC48-4050-8886-1893D258B0E4}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64597421-93BA-431B-B7AA-025B2327E635}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="3a62d3ce-78bb-4adc-a222-74f2b6beab74"/>
+    <ds:schemaRef ds:uri="ada4e998-af1b-4f2e-bfaf-2cbb293c01e4"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4232,21 +4252,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64597421-93BA-431B-B7AA-025B2327E635}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D85E4EDA-CC48-4050-8886-1893D258B0E4}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="3a62d3ce-78bb-4adc-a222-74f2b6beab74"/>
-    <ds:schemaRef ds:uri="ada4e998-af1b-4f2e-bfaf-2cbb293c01e4"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/requirements.xlsx
+++ b/requirements.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matthew.christian\msm\analyticalmeanderings.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D403465-87A1-426F-8A08-C1BD547AD5E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83992AE5-9E77-4B68-BF5B-73B690F2050C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9570" yWindow="1800" windowWidth="19185" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Technical Requirements" sheetId="3" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="62">
   <si>
     <t>ID</t>
   </si>
@@ -90,9 +90,6 @@
   </si>
   <si>
     <t>TR4</t>
-  </si>
-  <si>
-    <t>Password protect a github hosted page.</t>
   </si>
   <si>
     <t>Matt to investigate</t>
@@ -115,9 +112,6 @@
     <t>TR7</t>
   </si>
   <si>
-    <t>Data stored in downstream.csv</t>
-  </si>
-  <si>
     <t>TR8</t>
   </si>
   <si>
@@ -192,31 +186,43 @@
 Video links to analyticalmeanderings.com for V1.</t>
   </si>
   <si>
-    <t>On the Upstream Info tab, a table that lists all Upstream manufacterers, upstream products, City, Country, Application Data, Activeness Flag, and Forecasted Volume. Ability to filter and sort each column. Ability to export to Excel, csv.</t>
-  </si>
-  <si>
-    <t>On the Downstream Info tab, a table that lists all manufacterers, products, City, Country, Application Data, Activeness Flag, Forecasted Volume, and product codes. Ability to filter and sort each column. Ability to export to Excel, csv.</t>
-  </si>
-  <si>
     <t>On the Downstream Risk tab, a table that lists products, total risk, and all underlying risk factors. Ability to filter and sort each column. Ability to export to Excel, csv.</t>
   </si>
   <si>
     <t>On the Downstream Risk tab, add a waterfall chart for "active" selected products in the table.</t>
   </si>
   <si>
-    <t>On the Maps tab, build a map based on lat/long coordinates. Color/shape coding for upstream vs downstream, and active vs unconfirmed. Ability to zoom. Filters based on country, city, manufacturing type (upstream vs downstream), and Activity (Active vs Unconfirmed). Clicking on a site shows Manufacter Name, City, Country, Products, Volume, Activity Status. Ability to switch from map to table view.</t>
-  </si>
-  <si>
     <t>Data stored in map.csv</t>
   </si>
   <si>
-    <t>On the Scenerio analysis table</t>
-  </si>
-  <si>
     <t>On the alerts tab, dynamically pulled API calls with news alerts related to the pharma industry</t>
   </si>
   <si>
     <t>Only working High priority items for now</t>
+  </si>
+  <si>
+    <t>Password protect a github hosted page. Or similar solution. Currently  running proprietary data off local host.</t>
+  </si>
+  <si>
+    <t>On the Manufacturing Sites tab, a table that lists all manufacterers, products, City, Country, Application Data, Activeness Flag, and Forecasted Volume. Ability to filter and sort each column. Ability to export to Excel, csv.</t>
+  </si>
+  <si>
+    <t>On the Manufacturing Sites tab, build a map based on lat/long coordinates. Color/shape coding for upstream vs downstream, and active vs unconfirmed. Ability to zoom. Filters based on country, city, manufacturing type (upstream vs downstream), and Activity (Active vs Unconfirmed). Clicking on a site shows Manufacter Name, City, Country, Products, Volume, Activity Status. Ability to switch from map to table view.</t>
+  </si>
+  <si>
+    <t>On the Scenerio analysis table, build a map based on lat/long coordinates and product flows from upstream to downstream sites. The sites objects will behave in the same way as the Maps tab. The flows objects, when clicked, should display a volume and product table (a flow object can have more than one product). The width of a flow object should be size weighted based on aggregated volume. Filters based on product name. Ability to switch from map to table view.</t>
+  </si>
+  <si>
+    <t>Site level, FDF product level (risk model outputs), raw material level, API product level, scenerio level (two tables in-scope, downstream connections, % of market share, two dimensional table)</t>
+  </si>
+  <si>
+    <t>Highest</t>
+  </si>
+  <si>
+    <t>https://www.w3schools.com/howto/howto_js_collapsible.asp for Scen analysis</t>
+  </si>
+  <si>
+    <t>Brand review, narrative development</t>
   </si>
 </sst>
 </file>
@@ -269,7 +275,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -309,6 +315,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -635,8 +644,8 @@
   <dimension ref="A1:F520"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -666,7 +675,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -698,13 +707,13 @@
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D7" s="13" t="s">
         <v>11</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F7" s="4"/>
     </row>
@@ -724,19 +733,19 @@
       </c>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="3" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="D9" s="13" t="s">
         <v>13</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F9" s="4"/>
     </row>
@@ -746,139 +755,141 @@
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D10" s="13" t="s">
         <v>11</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F10" s="4"/>
     </row>
     <row r="11" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="3" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D11" s="13" t="s">
         <v>11</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="3" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D12" s="13" t="s">
         <v>11</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="F12" s="4"/>
     </row>
     <row r="13" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D13" s="13" t="s">
         <v>11</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F13" s="4"/>
     </row>
     <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D14" s="13" t="s">
         <v>11</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F14" s="4"/>
     </row>
     <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D15" s="13" t="s">
         <v>17</v>
       </c>
       <c r="E15" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="4"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F16" s="4"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D17" s="13"/>
-      <c r="E17" s="3"/>
+      <c r="D17" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="F17" s="4"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B18" s="4"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="13"/>
+      <c r="C18" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>59</v>
+      </c>
       <c r="E18" s="3"/>
       <c r="F18" s="4"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="3"/>
@@ -888,21 +899,23 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B20" s="4"/>
-      <c r="C20" s="3"/>
+      <c r="C20" s="14" t="s">
+        <v>60</v>
+      </c>
       <c r="D20" s="13"/>
       <c r="E20" s="3"/>
       <c r="F20" s="4"/>
     </row>
     <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B21" s="4"/>
       <c r="C21" s="3" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D21" s="13" t="s">
         <v>13</v>
@@ -914,7 +927,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="3" t="s">
@@ -930,17 +943,23 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B23" s="4"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="3"/>
+      <c r="C23" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="F23" s="4"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B24" s="4"/>
       <c r="C24" s="3"/>
@@ -950,7 +969,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B25" s="4"/>
       <c r="C25" s="3"/>
@@ -960,7 +979,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B26" s="4"/>
       <c r="C26" s="3"/>
@@ -970,7 +989,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B27" s="4"/>
       <c r="C27" s="3"/>
@@ -980,7 +999,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B28" s="4"/>
       <c r="C28" s="3"/>
@@ -990,7 +1009,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B29" s="4"/>
       <c r="C29" s="3"/>
@@ -1000,7 +1019,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B30" s="4"/>
       <c r="C30" s="3"/>
@@ -3951,16 +3970,41 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1" xr:uid="{AD04649E-AADE-4C98-B0EF-C923DD6A0FC2}"/>
+    <hyperlink ref="C20" r:id="rId2" xr:uid="{873AFF42-B5A4-4656-83F0-AAA5D66D219C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <LikesCount xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Ratings xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <LikedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </LikedBy>
+    <IconOverlay xmlns="3a62d3ce-78bb-4adc-a222-74f2b6beab74" xsi:nil="true"/>
+    <RatedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </RatedBy>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C5FE1A8C0484374FA9D05E0325AA5CDC" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5fd9fb094fb26610ef33c42972fdb6db">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="3a62d3ce-78bb-4adc-a222-74f2b6beab74" xmlns:ns3="ada4e998-af1b-4f2e-bfaf-2cbb293c01e4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f8a62238d97390e09e10128978886e86" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -4180,30 +4224,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <LikesCount xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Ratings xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <LikedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </LikedBy>
-    <IconOverlay xmlns="3a62d3ce-78bb-4adc-a222-74f2b6beab74" xsi:nil="true"/>
-    <RatedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </RatedBy>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -4214,6 +4234,24 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F2ED164F-5622-458E-B1AF-EBAE35FF1310}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="3a62d3ce-78bb-4adc-a222-74f2b6beab74"/>
+    <ds:schemaRef ds:uri="ada4e998-af1b-4f2e-bfaf-2cbb293c01e4"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64597421-93BA-431B-B7AA-025B2327E635}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4233,24 +4271,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F2ED164F-5622-458E-B1AF-EBAE35FF1310}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="3a62d3ce-78bb-4adc-a222-74f2b6beab74"/>
-    <ds:schemaRef ds:uri="ada4e998-af1b-4f2e-bfaf-2cbb293c01e4"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D85E4EDA-CC48-4050-8886-1893D258B0E4}">
   <ds:schemaRefs>

--- a/requirements.xlsx
+++ b/requirements.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matthew.christian\msm\analyticalmeanderings.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83992AE5-9E77-4B68-BF5B-73B690F2050C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{734F38E7-F827-4940-8199-F740A5F2C35A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="55">
   <si>
     <t>ID</t>
   </si>
@@ -98,131 +98,110 @@
     <t>TR5</t>
   </si>
   <si>
-    <t>On the home tab, a Top 10 At Risk Downstream Products list/table. 
-A recent alerts notice.
+    <t>TR6</t>
+  </si>
+  <si>
+    <t>TR7</t>
+  </si>
+  <si>
+    <t>TR8</t>
+  </si>
+  <si>
+    <t>TR9</t>
+  </si>
+  <si>
+    <t>TR10</t>
+  </si>
+  <si>
+    <t>Data to be created</t>
+  </si>
+  <si>
+    <t>BLOCKED</t>
+  </si>
+  <si>
+    <t>TR11</t>
+  </si>
+  <si>
+    <t>TR12</t>
+  </si>
+  <si>
+    <t>TR13</t>
+  </si>
+  <si>
+    <t>TR14</t>
+  </si>
+  <si>
+    <t>TR15</t>
+  </si>
+  <si>
+    <t>TR16</t>
+  </si>
+  <si>
+    <t>V1 does not include API calls</t>
+  </si>
+  <si>
+    <t>On the alerts tab, dynamically pulled API calls with news alerts related to the pharma industry</t>
+  </si>
+  <si>
+    <t>Only working High priority items for now</t>
+  </si>
+  <si>
+    <t>On the Manufacturing Sites tab, build a map based on lat/long coordinates. Color/shape coding for upstream vs downstream, and active vs unconfirmed. Ability to zoom. Filters based on country, city, manufacturing type (upstream vs downstream), and Activity (Active vs Unconfirmed). Clicking on a site shows Manufacter Name, City, Country, Products, Volume, Activity Status. Ability to switch from map to table view.</t>
+  </si>
+  <si>
+    <t>Brand review, narrative development</t>
+  </si>
+  <si>
+    <t>Seven interactive tabs across the top of the screen, enabled with MERN (MongoDB, NodeJS, ReactJS, ExpressJS). MongoDB is lowest priority as it can be replaced with AWS (assumption needs validation). Name of tabs: Home, Manufacturing Sites, Products, Downstream Risk, Raw Materials, Scenario Analysis, Alerts</t>
+  </si>
+  <si>
+    <t>Password protect a hosted page. Currently  running proprietary data off local host.</t>
+  </si>
+  <si>
+    <t>On the home tab, a Top 10 At Risk Downstream Products list. 
+Three recent alerts notice text (not marquee text).
 A tutorial section with a video link.</t>
   </si>
   <si>
-    <t>TR6</t>
-  </si>
-  <si>
-    <t>Data stored in upstream.csv</t>
-  </si>
-  <si>
-    <t>TR7</t>
-  </si>
-  <si>
-    <t>TR8</t>
-  </si>
-  <si>
-    <t>Data stored in downstream_risk.csv</t>
-  </si>
-  <si>
-    <t>TR9</t>
-  </si>
-  <si>
-    <t>TR10</t>
-  </si>
-  <si>
-    <t>On the Downstream Risk tab, add a time series chart for "active" selected product that shows score changes over time.</t>
-  </si>
-  <si>
-    <t>Data to be created</t>
-  </si>
-  <si>
-    <t>BLOCKED</t>
-  </si>
-  <si>
-    <t>TR11</t>
-  </si>
-  <si>
-    <t>TR12</t>
-  </si>
-  <si>
-    <t>TR13</t>
-  </si>
-  <si>
-    <t>TR14</t>
-  </si>
-  <si>
-    <t>TR15</t>
-  </si>
-  <si>
-    <t>TR16</t>
-  </si>
-  <si>
-    <t>TR17</t>
-  </si>
-  <si>
-    <t>TR18</t>
-  </si>
-  <si>
-    <t>TR19</t>
-  </si>
-  <si>
-    <t>TR20</t>
-  </si>
-  <si>
-    <t>TR21</t>
-  </si>
-  <si>
-    <t>TR22</t>
-  </si>
-  <si>
-    <t>TR23</t>
-  </si>
-  <si>
-    <t>TR24</t>
-  </si>
-  <si>
-    <t>Seven interactive tabs across the top of the screen, enabled with MERN (MongoDB, NodeJS, ReactJS, ExpressJS). MongoDB is lowest priority as it can be replaced with AWS (assumption needs validation).</t>
-  </si>
-  <si>
-    <t>V1 does not include API calls</t>
-  </si>
-  <si>
-    <t>For the Top 10 table, use downstream_risk.csv
+    <t>For the Top 10 table, use risk.json, find the top 10 lowest Base scores, list the top 10 Drugs
 Alerts are static for V1.
-Video links to analyticalmeanderings.com for V1.</t>
-  </si>
-  <si>
-    <t>On the Downstream Risk tab, a table that lists products, total risk, and all underlying risk factors. Ability to filter and sort each column. Ability to export to Excel, csv.</t>
-  </si>
-  <si>
-    <t>On the Downstream Risk tab, add a waterfall chart for "active" selected products in the table.</t>
-  </si>
-  <si>
-    <t>Data stored in map.csv</t>
-  </si>
-  <si>
-    <t>On the alerts tab, dynamically pulled API calls with news alerts related to the pharma industry</t>
-  </si>
-  <si>
-    <t>Only working High priority items for now</t>
-  </si>
-  <si>
-    <t>Password protect a github hosted page. Or similar solution. Currently  running proprietary data off local host.</t>
-  </si>
-  <si>
-    <t>On the Manufacturing Sites tab, a table that lists all manufacterers, products, City, Country, Application Data, Activeness Flag, and Forecasted Volume. Ability to filter and sort each column. Ability to export to Excel, csv.</t>
-  </si>
-  <si>
-    <t>On the Manufacturing Sites tab, build a map based on lat/long coordinates. Color/shape coding for upstream vs downstream, and active vs unconfirmed. Ability to zoom. Filters based on country, city, manufacturing type (upstream vs downstream), and Activity (Active vs Unconfirmed). Clicking on a site shows Manufacter Name, City, Country, Products, Volume, Activity Status. Ability to switch from map to table view.</t>
-  </si>
-  <si>
-    <t>On the Scenerio analysis table, build a map based on lat/long coordinates and product flows from upstream to downstream sites. The sites objects will behave in the same way as the Maps tab. The flows objects, when clicked, should display a volume and product table (a flow object can have more than one product). The width of a flow object should be size weighted based on aggregated volume. Filters based on product name. Ability to switch from map to table view.</t>
-  </si>
-  <si>
-    <t>Site level, FDF product level (risk model outputs), raw material level, API product level, scenerio level (two tables in-scope, downstream connections, % of market share, two dimensional table)</t>
-  </si>
-  <si>
-    <t>Highest</t>
-  </si>
-  <si>
-    <t>https://www.w3schools.com/howto/howto_js_collapsible.asp for Scen analysis</t>
-  </si>
-  <si>
-    <t>Brand review, narrative development</t>
+Video links to usp.org/supply_chain/medicine-supply-map for V1.</t>
+  </si>
+  <si>
+    <t>On the Manufacturing Sites tab, a table that lists all Manufacterer, Manufacuring Type, Products, City, Country, Application Data, Activeness Flag, and Forecasted Volume. Ability to filter and sort each column, similar to Excel. Ability to export to Excel, csv.</t>
+  </si>
+  <si>
+    <t>Data stored in locations.json</t>
+  </si>
+  <si>
+    <t>On the Products tab, a table that lists Drug, Product Codes, and Price. Ability to filter and sort each column, similar to Excel. Ability to export to Excel, csv.</t>
+  </si>
+  <si>
+    <t>Data stored in products.json</t>
+  </si>
+  <si>
+    <t>On the FDF Risk tab, a table that lists products, total risk, and all underlying risk factors. Ability to filter and sort each column. Ability to export to Excel, csv.</t>
+  </si>
+  <si>
+    <t>Data stored in risk.json</t>
+  </si>
+  <si>
+    <t>On the FDF Risk tab, add a waterfall chart for "active" selected products in the table.</t>
+  </si>
+  <si>
+    <t>On the FDF Risk tab, add a time series chart for "active" selected product that shows score changes over time.</t>
+  </si>
+  <si>
+    <t>On the Raw Materials tab, a neo4j graph</t>
+  </si>
+  <si>
+    <t>On the Scenario analysis table, build a map based on lat/long coordinates and product flows from upstream to downstream sites. The sites objects will behave in the same way as the Maps tab. The flows objects, when clicked, should display a volume and product table (a flow object can have more than one product). The width of a flow object should be size weighted based on aggregated volume. Filters based on product name. Ability to switch from map to table view.</t>
+  </si>
+  <si>
+    <t>Data stored in scenario.json</t>
+  </si>
+  <si>
+    <t>https://gis.stackexchange.com/questions/71921/list-of-central-coordinates-centroid-for-all-countries</t>
   </si>
 </sst>
 </file>
@@ -362,8 +341,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8CA59DA4-B8D5-4547-ACD6-8BD021AD051E}" name="Table13" displayName="Table13" ref="A6:F30" totalsRowShown="0">
-  <autoFilter ref="A6:F30" xr:uid="{8CA59DA4-B8D5-4547-ACD6-8BD021AD051E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8CA59DA4-B8D5-4547-ACD6-8BD021AD051E}" name="Table13" displayName="Table13" ref="A6:F22" totalsRowShown="0">
+  <autoFilter ref="A6:F22" xr:uid="{8CA59DA4-B8D5-4547-ACD6-8BD021AD051E}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{E6CAB10F-387E-491E-ABB9-498799643CFA}" name="ID" dataDxfId="5">
       <calculatedColumnFormula>A6+1</calculatedColumnFormula>
@@ -641,11 +620,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{801E37F9-6044-4D9F-88B6-D3BE230A5B2B}">
-  <dimension ref="A1:F520"/>
+  <dimension ref="A1:F512"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -675,7 +654,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -701,19 +680,19 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="3" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D7" s="13" t="s">
         <v>11</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="F7" s="4"/>
     </row>
@@ -733,299 +712,277 @@
       </c>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="3" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>19</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="E9" s="3"/>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="3" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="D10" s="13" t="s">
         <v>11</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="3" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="D11" s="13" t="s">
         <v>11</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="F11" s="4"/>
     </row>
     <row r="12" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="3" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="D12" s="13" t="s">
         <v>11</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D13" s="13" t="s">
         <v>11</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="F13" s="4"/>
     </row>
     <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D14" s="13" t="s">
         <v>11</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="F14" s="4"/>
     </row>
     <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="3" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="D15" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="4"/>
+      <c r="C16" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="E16" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="4"/>
-    </row>
-    <row r="17" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="3" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F17" s="4"/>
     </row>
-    <row r="18" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="3" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="E18" s="3"/>
+        <v>11</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="F18" s="4"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B19" s="4"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="3"/>
+      <c r="C19" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="F19" s="4"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B20" s="4"/>
-      <c r="C20" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="D20" s="13"/>
-      <c r="E20" s="3"/>
+      <c r="C20" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B21" s="4"/>
       <c r="C21" s="3" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>14</v>
       </c>
       <c r="F21" s="4"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B22" s="4"/>
-      <c r="C22" s="3" t="s">
-        <v>7</v>
+      <c r="C22" s="14" t="s">
+        <v>54</v>
       </c>
       <c r="D22" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E22" s="4" t="s">
-        <v>14</v>
+      <c r="E22" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="F22" s="4"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="A23" s="1"/>
       <c r="B23" s="4"/>
-      <c r="C23" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D23" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F23" s="4"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="4"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>39</v>
-      </c>
+      <c r="A24" s="1"/>
       <c r="B24" s="4"/>
       <c r="C24" s="3"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="4"/>
+      <c r="D24" s="4"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>40</v>
-      </c>
+      <c r="A25" s="1"/>
       <c r="B25" s="4"/>
       <c r="C25" s="3"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="4"/>
+      <c r="D25" s="4"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>41</v>
-      </c>
+      <c r="A26" s="1"/>
       <c r="B26" s="4"/>
       <c r="C26" s="3"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="4"/>
+      <c r="D26" s="4"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="A27" s="1"/>
       <c r="B27" s="4"/>
       <c r="C27" s="3"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="4"/>
+      <c r="D27" s="4"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>43</v>
-      </c>
+      <c r="A28" s="1"/>
       <c r="B28" s="4"/>
       <c r="C28" s="3"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="4"/>
+      <c r="D28" s="4"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>44</v>
-      </c>
+      <c r="A29" s="1"/>
       <c r="B29" s="4"/>
       <c r="C29" s="3"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="4"/>
+      <c r="D29" s="4"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="A30" s="1"/>
       <c r="B30" s="4"/>
       <c r="C30" s="3"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="4"/>
+      <c r="D30" s="4"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
@@ -3919,58 +3876,10 @@
       <c r="C512" s="3"/>
       <c r="D512" s="4"/>
     </row>
-    <row r="513" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A513" s="1"/>
-      <c r="B513" s="4"/>
-      <c r="C513" s="3"/>
-      <c r="D513" s="4"/>
-    </row>
-    <row r="514" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A514" s="1"/>
-      <c r="B514" s="4"/>
-      <c r="C514" s="3"/>
-      <c r="D514" s="4"/>
-    </row>
-    <row r="515" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A515" s="1"/>
-      <c r="B515" s="4"/>
-      <c r="C515" s="3"/>
-      <c r="D515" s="4"/>
-    </row>
-    <row r="516" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A516" s="1"/>
-      <c r="B516" s="4"/>
-      <c r="C516" s="3"/>
-      <c r="D516" s="4"/>
-    </row>
-    <row r="517" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A517" s="1"/>
-      <c r="B517" s="4"/>
-      <c r="C517" s="3"/>
-      <c r="D517" s="4"/>
-    </row>
-    <row r="518" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A518" s="1"/>
-      <c r="B518" s="4"/>
-      <c r="C518" s="3"/>
-      <c r="D518" s="4"/>
-    </row>
-    <row r="519" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A519" s="1"/>
-      <c r="B519" s="4"/>
-      <c r="C519" s="3"/>
-      <c r="D519" s="4"/>
-    </row>
-    <row r="520" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A520" s="1"/>
-      <c r="B520" s="4"/>
-      <c r="C520" s="3"/>
-      <c r="D520" s="4"/>
-    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1" xr:uid="{AD04649E-AADE-4C98-B0EF-C923DD6A0FC2}"/>
-    <hyperlink ref="C20" r:id="rId2" xr:uid="{873AFF42-B5A4-4656-83F0-AAA5D66D219C}"/>
+    <hyperlink ref="C22" r:id="rId2" xr:uid="{10B9E095-FCDD-405D-B505-E3EB9F9BFDE6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
@@ -3981,27 +3890,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <LikesCount xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Ratings xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <LikedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </LikedBy>
-    <IconOverlay xmlns="3a62d3ce-78bb-4adc-a222-74f2b6beab74" xsi:nil="true"/>
-    <RatedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </RatedBy>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4225,28 +4119,33 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <LikesCount xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Ratings xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <LikedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </LikedBy>
+    <IconOverlay xmlns="3a62d3ce-78bb-4adc-a222-74f2b6beab74" xsi:nil="true"/>
+    <RatedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </RatedBy>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F2ED164F-5622-458E-B1AF-EBAE35FF1310}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D85E4EDA-CC48-4050-8886-1893D258B0E4}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="3a62d3ce-78bb-4adc-a222-74f2b6beab74"/>
-    <ds:schemaRef ds:uri="ada4e998-af1b-4f2e-bfaf-2cbb293c01e4"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4272,9 +4171,19 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D85E4EDA-CC48-4050-8886-1893D258B0E4}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F2ED164F-5622-458E-B1AF-EBAE35FF1310}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="3a62d3ce-78bb-4adc-a222-74f2b6beab74"/>
+    <ds:schemaRef ds:uri="ada4e998-af1b-4f2e-bfaf-2cbb293c01e4"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/requirements.xlsx
+++ b/requirements.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matthew.christian\msm\analyticalmeanderings.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{734F38E7-F827-4940-8199-F740A5F2C35A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78A28128-032F-4797-B099-020AF9C55A93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Technical Requirements" sheetId="3" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="55">
   <si>
     <t>ID</t>
   </si>
@@ -147,9 +147,6 @@
   </si>
   <si>
     <t>On the Manufacturing Sites tab, build a map based on lat/long coordinates. Color/shape coding for upstream vs downstream, and active vs unconfirmed. Ability to zoom. Filters based on country, city, manufacturing type (upstream vs downstream), and Activity (Active vs Unconfirmed). Clicking on a site shows Manufacter Name, City, Country, Products, Volume, Activity Status. Ability to switch from map to table view.</t>
-  </si>
-  <si>
-    <t>Brand review, narrative development</t>
   </si>
   <si>
     <t>Seven interactive tabs across the top of the screen, enabled with MERN (MongoDB, NodeJS, ReactJS, ExpressJS). MongoDB is lowest priority as it can be replaced with AWS (assumption needs validation). Name of tabs: Home, Manufacturing Sites, Products, Downstream Risk, Raw Materials, Scenario Analysis, Alerts</t>
@@ -202,6 +199,9 @@
   </si>
   <si>
     <t>https://gis.stackexchange.com/questions/71921/list-of-central-coordinates-centroid-for-all-countries</t>
+  </si>
+  <si>
+    <t>Brand review, narrative development. Approval by Renee.</t>
   </si>
 </sst>
 </file>
@@ -341,17 +341,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8CA59DA4-B8D5-4547-ACD6-8BD021AD051E}" name="Table13" displayName="Table13" ref="A6:F22" totalsRowShown="0">
-  <autoFilter ref="A6:F22" xr:uid="{8CA59DA4-B8D5-4547-ACD6-8BD021AD051E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D4B87167-0F3F-4BFA-A1D0-87DDB7FE5A86}" name="Table1" displayName="Table1" ref="A6:F22" totalsRowShown="0">
+  <autoFilter ref="A6:F22" xr:uid="{D4B87167-0F3F-4BFA-A1D0-87DDB7FE5A86}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{E6CAB10F-387E-491E-ABB9-498799643CFA}" name="ID" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{02941116-A402-4089-9AC1-8987C1C14100}" name="ID" dataDxfId="5">
       <calculatedColumnFormula>A6+1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{9A99AA3D-B3AE-4A34-9827-B5F07B36F992}" name="JiraStory" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{65B8B725-0BA0-4040-AD7E-1BE06CEDBE83}" name="Description" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{A221AA08-4BC3-44D1-ABA9-9ED3ED4D8D0F}" name="Priority" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{19741542-0268-4151-A95D-6325D1F0E171}" name="Comments" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{8BCF0C27-4F7A-4196-987E-1042295E72A8}" name="Status" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{01AD7522-63AA-4539-865D-C09AFE6F3314}" name="JiraStory" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{7163A8BC-3B71-49A5-9D9D-81B434D3DE45}" name="Description" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{E4901DFF-5483-4B8C-9AF4-FF5D888E0364}" name="Priority" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{83627FA7-C359-4964-94F9-9B6523167DCC}" name="Comments" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{C64257B8-9B18-4101-942C-4FE301C9C66B}" name="Status" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -624,7 +624,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomLeft" activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -686,7 +686,7 @@
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D7" s="13" t="s">
         <v>11</v>
@@ -718,7 +718,7 @@
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D9" s="13" t="s">
         <v>11</v>
@@ -732,13 +732,13 @@
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D10" s="13" t="s">
         <v>11</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F10" s="4"/>
     </row>
@@ -748,13 +748,13 @@
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D11" s="13" t="s">
         <v>11</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F11" s="4"/>
     </row>
@@ -770,7 +770,7 @@
         <v>11</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F12" s="4"/>
     </row>
@@ -780,13 +780,13 @@
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D13" s="13" t="s">
         <v>11</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F13" s="4"/>
     </row>
@@ -796,13 +796,13 @@
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D14" s="13" t="s">
         <v>11</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F14" s="4"/>
     </row>
@@ -812,13 +812,13 @@
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D15" s="13" t="s">
         <v>11</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F15" s="4"/>
     </row>
@@ -828,7 +828,7 @@
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D16" s="13" t="s">
         <v>17</v>
@@ -846,7 +846,7 @@
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D17" s="13" t="s">
         <v>13</v>
@@ -862,13 +862,13 @@
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D18" s="13" t="s">
         <v>11</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F18" s="4"/>
     </row>
@@ -910,14 +910,12 @@
       </c>
       <c r="B21" s="4"/>
       <c r="C21" s="3" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>14</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="E21" s="4"/>
       <c r="F21" s="4"/>
     </row>
     <row r="22" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -926,7 +924,7 @@
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D22" s="13" t="s">
         <v>17</v>
@@ -3879,7 +3877,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1" xr:uid="{AD04649E-AADE-4C98-B0EF-C923DD6A0FC2}"/>
-    <hyperlink ref="C22" r:id="rId2" xr:uid="{10B9E095-FCDD-405D-B505-E3EB9F9BFDE6}"/>
+    <hyperlink ref="C22" r:id="rId2" xr:uid="{33D95E57-7C55-4E10-B892-9413ED102B69}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
@@ -3890,15 +3888,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C5FE1A8C0484374FA9D05E0325AA5CDC" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5fd9fb094fb26610ef33c42972fdb6db">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="3a62d3ce-78bb-4adc-a222-74f2b6beab74" xmlns:ns3="ada4e998-af1b-4f2e-bfaf-2cbb293c01e4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f8a62238d97390e09e10128978886e86" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -4118,6 +4107,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -4143,14 +4141,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D85E4EDA-CC48-4050-8886-1893D258B0E4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64597421-93BA-431B-B7AA-025B2327E635}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4166,6 +4156,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D85E4EDA-CC48-4050-8886-1893D258B0E4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/requirements.xlsx
+++ b/requirements.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matthew.christian\msm\analyticalmeanderings.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78A28128-032F-4797-B099-020AF9C55A93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94DB8ADC-DFB9-4E49-A03E-D6AF6E85A466}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Technical Requirements" sheetId="3" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="58">
   <si>
     <t>ID</t>
   </si>
@@ -92,9 +92,6 @@
     <t>TR4</t>
   </si>
   <si>
-    <t>Matt to investigate</t>
-  </si>
-  <si>
     <t>TR5</t>
   </si>
   <si>
@@ -137,19 +134,10 @@
     <t>TR16</t>
   </si>
   <si>
-    <t>V1 does not include API calls</t>
-  </si>
-  <si>
     <t>On the alerts tab, dynamically pulled API calls with news alerts related to the pharma industry</t>
   </si>
   <si>
     <t>Only working High priority items for now</t>
-  </si>
-  <si>
-    <t>On the Manufacturing Sites tab, build a map based on lat/long coordinates. Color/shape coding for upstream vs downstream, and active vs unconfirmed. Ability to zoom. Filters based on country, city, manufacturing type (upstream vs downstream), and Activity (Active vs Unconfirmed). Clicking on a site shows Manufacter Name, City, Country, Products, Volume, Activity Status. Ability to switch from map to table view.</t>
-  </si>
-  <si>
-    <t>Seven interactive tabs across the top of the screen, enabled with MERN (MongoDB, NodeJS, ReactJS, ExpressJS). MongoDB is lowest priority as it can be replaced with AWS (assumption needs validation). Name of tabs: Home, Manufacturing Sites, Products, Downstream Risk, Raw Materials, Scenario Analysis, Alerts</t>
   </si>
   <si>
     <t>Password protect a hosted page. Currently  running proprietary data off local host.</t>
@@ -165,9 +153,6 @@
 Video links to usp.org/supply_chain/medicine-supply-map for V1.</t>
   </si>
   <si>
-    <t>On the Manufacturing Sites tab, a table that lists all Manufacterer, Manufacuring Type, Products, City, Country, Application Data, Activeness Flag, and Forecasted Volume. Ability to filter and sort each column, similar to Excel. Ability to export to Excel, csv.</t>
-  </si>
-  <si>
     <t>Data stored in locations.json</t>
   </si>
   <si>
@@ -177,31 +162,55 @@
     <t>Data stored in products.json</t>
   </si>
   <si>
-    <t>On the FDF Risk tab, a table that lists products, total risk, and all underlying risk factors. Ability to filter and sort each column. Ability to export to Excel, csv.</t>
-  </si>
-  <si>
     <t>Data stored in risk.json</t>
   </si>
   <si>
-    <t>On the FDF Risk tab, add a waterfall chart for "active" selected products in the table.</t>
-  </si>
-  <si>
-    <t>On the FDF Risk tab, add a time series chart for "active" selected product that shows score changes over time.</t>
-  </si>
-  <si>
     <t>On the Raw Materials tab, a neo4j graph</t>
   </si>
   <si>
-    <t>On the Scenario analysis table, build a map based on lat/long coordinates and product flows from upstream to downstream sites. The sites objects will behave in the same way as the Maps tab. The flows objects, when clicked, should display a volume and product table (a flow object can have more than one product). The width of a flow object should be size weighted based on aggregated volume. Filters based on product name. Ability to switch from map to table view.</t>
-  </si>
-  <si>
     <t>Data stored in scenario.json</t>
   </si>
   <si>
-    <t>https://gis.stackexchange.com/questions/71921/list-of-central-coordinates-centroid-for-all-countries</t>
-  </si>
-  <si>
     <t>Brand review, narrative development. Approval by Renee.</t>
+  </si>
+  <si>
+    <t>Seven interactive tabs across the top of the screen, enabled with MERN (MongoDB, NodeJS, ReactJS, ExpressJS). MongoDB is lowest priority as it can be replaced with AWS (assumption needs validation). Name of tabs: Home, Facilities, Products, Drug Product Risk, Raw Materials, Scenario Analysis, Alerts</t>
+  </si>
+  <si>
+    <t>V1 does not include API calls, just static json files</t>
+  </si>
+  <si>
+    <t>data2impact has a recommendation</t>
+  </si>
+  <si>
+    <t>On the Home tab, the "impact" text links to prefiltered maps on either the Scenerio Analysis OR the Facilities tab.</t>
+  </si>
+  <si>
+    <t>On the Facilities tab, a table that lists all Manufacturer, Manufacturing Type, Products, City, Country, Application Data, and Activeness Flag. Ability to filter and sort each column, similar to Excel. Ability to export to Excel, csv.</t>
+  </si>
+  <si>
+    <t>On the Facilities Sites tab, build a map based on lat/long coordinates. Color/shape coding for Manufacturing Type, and Activeness. Ability to zoom. Filters based on country, city, manufacturing type, and Activity (Active vs Unconfirmed). Clicking on a site shows Manufacter Name, City, Country, Products, Activity Status. Ability to switch from map to table view.</t>
+  </si>
+  <si>
+    <t>On the Drug Product Risk tab, a table that lists products, total risk, and all underlying risk factors. Ability to filter and sort each column. Ability to export to Excel, csv.</t>
+  </si>
+  <si>
+    <t>On the Drug Product Risk tab, add a waterfall chart for "active" selected products in the table.</t>
+  </si>
+  <si>
+    <t>On the Drug Product Risk tab, add a time series chart for "active" selected product that shows score changes over time.</t>
+  </si>
+  <si>
+    <t>On the Scenario analysis table, build a map based on lat/long coordinates and product flows from API to Drug Products sites. The sites objects will behave in the same way as the Maps tab. The flows objects, when clicked, should display a product table (a flow object can have more than one product). Filters based on product name, city, country. Ability to switch from map to table view.</t>
+  </si>
+  <si>
+    <t>On the Scenario tab, a sankey diagram with aggregated site counts based on the applied filters</t>
+  </si>
+  <si>
+    <t>TR17</t>
+  </si>
+  <si>
+    <t>Data to be created, out of scope for V1</t>
   </si>
 </sst>
 </file>
@@ -254,7 +263,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -294,9 +303,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -341,12 +347,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D4B87167-0F3F-4BFA-A1D0-87DDB7FE5A86}" name="Table1" displayName="Table1" ref="A6:F22" totalsRowShown="0">
-  <autoFilter ref="A6:F22" xr:uid="{D4B87167-0F3F-4BFA-A1D0-87DDB7FE5A86}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D4B87167-0F3F-4BFA-A1D0-87DDB7FE5A86}" name="Table1" displayName="Table1" ref="A6:F23" totalsRowShown="0">
+  <autoFilter ref="A6:F23" xr:uid="{D4B87167-0F3F-4BFA-A1D0-87DDB7FE5A86}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{02941116-A402-4089-9AC1-8987C1C14100}" name="ID" dataDxfId="5">
-      <calculatedColumnFormula>A6+1</calculatedColumnFormula>
-    </tableColumn>
+    <tableColumn id="1" xr3:uid="{02941116-A402-4089-9AC1-8987C1C14100}" name="ID" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{01AD7522-63AA-4539-865D-C09AFE6F3314}" name="JiraStory" dataDxfId="4"/>
     <tableColumn id="3" xr3:uid="{7163A8BC-3B71-49A5-9D9D-81B434D3DE45}" name="Description" dataDxfId="3"/>
     <tableColumn id="5" xr3:uid="{E4901DFF-5483-4B8C-9AF4-FF5D888E0364}" name="Priority" dataDxfId="2"/>
@@ -624,7 +628,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M11" sqref="M11"/>
+      <selection pane="bottomLeft" activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -654,7 +658,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -680,19 +684,19 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="3" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D7" s="13" t="s">
         <v>11</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="F7" s="4"/>
     </row>
@@ -712,18 +716,20 @@
       </c>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D9" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="3"/>
+      <c r="E9" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="F9" s="4"/>
     </row>
     <row r="10" spans="1:6" ht="120" x14ac:dyDescent="0.25">
@@ -732,213 +738,221 @@
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D10" s="13" t="s">
         <v>11</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="3" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="D11" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>43</v>
-      </c>
+      <c r="E11" s="3"/>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="3" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="D12" s="13" t="s">
         <v>11</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="3" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D13" s="13" t="s">
         <v>11</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="F13" s="4"/>
     </row>
     <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="3" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D14" s="13" t="s">
         <v>11</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="3" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D15" s="13" t="s">
         <v>11</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F15" s="4"/>
     </row>
     <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="3" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F16" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="3" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E17" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F17" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F17" s="4"/>
-    </row>
-    <row r="18" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="3" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="D18" s="13" t="s">
         <v>11</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="F18" s="4"/>
     </row>
-    <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="3" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>14</v>
+        <v>11</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B20" s="4"/>
       <c r="C20" s="3" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>14</v>
+        <v>11</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B21" s="4"/>
       <c r="C21" s="3" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E21" s="4"/>
+        <v>13</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="F21" s="4"/>
     </row>
-    <row r="22" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B22" s="4"/>
-      <c r="C22" s="14" t="s">
-        <v>53</v>
+      <c r="C22" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="D22" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>19</v>
+      <c r="E22" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="F22" s="4"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
+      <c r="A23" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="B23" s="4"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="4"/>
+      <c r="C23" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
@@ -3877,17 +3891,25 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1" xr:uid="{AD04649E-AADE-4C98-B0EF-C923DD6A0FC2}"/>
-    <hyperlink ref="C22" r:id="rId2" xr:uid="{33D95E57-7C55-4E10-B892-9413ED102B69}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C5FE1A8C0484374FA9D05E0325AA5CDC" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5fd9fb094fb26610ef33c42972fdb6db">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="3a62d3ce-78bb-4adc-a222-74f2b6beab74" xmlns:ns3="ada4e998-af1b-4f2e-bfaf-2cbb293c01e4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f8a62238d97390e09e10128978886e86" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -4107,15 +4129,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -4141,6 +4154,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D85E4EDA-CC48-4050-8886-1893D258B0E4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64597421-93BA-431B-B7AA-025B2327E635}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4156,14 +4177,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D85E4EDA-CC48-4050-8886-1893D258B0E4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
